--- a/biology/Médecine/Gérard_Pascal/Gérard_Pascal.xlsx
+++ b/biology/Médecine/Gérard_Pascal/Gérard_Pascal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pascal</t>
+          <t>Gérard_Pascal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Pascal, né le 16 juillet 1942 à Paris[1], est un toxicologue français, chercheur à l'Institut national de la recherche agronomique (INRA). Aujourd'hui à la retraite, il est désormais consultant pour des entreprises agroalimentaires[2].
-Il a été membre du Conseil supérieur d'hygiène publique de France (1978-2000), président du comité scientifique de l'Agence française de sécurité sanitaire des aliments (1999-2002) puis membre de son comité d'administration (2002-2005), membre de la Commission du génie biomoléculaire, etc. Dans le sillage de ses fonctions administratives, il participe à la création de l'Autorité européenne de sécurité des aliments (AESA) en 2003[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Pascal, né le 16 juillet 1942 à Paris, est un toxicologue français, chercheur à l'Institut national de la recherche agronomique (INRA). Aujourd'hui à la retraite, il est désormais consultant pour des entreprises agroalimentaires.
+Il a été membre du Conseil supérieur d'hygiène publique de France (1978-2000), président du comité scientifique de l'Agence française de sécurité sanitaire des aliments (1999-2002) puis membre de son comité d'administration (2002-2005), membre de la Commission du génie biomoléculaire, etc. Dans le sillage de ses fonctions administratives, il participe à la création de l'Autorité européenne de sécurité des aliments (AESA) en 2003.
 À ce titre, il intervient de façon régulière dans les médias concernant les enjeux de sécurité alimentaire, notamment à propos de la controverse sur les OGM. Pascal est aussi membre d'associations, telles l'Association française pour l'information scientifique (AFIS) pour laquelle il est rédacteur; de l'Institut français pour la nutrition (IFN), qui rassemble de nombreux groupes agro-alimentaires ; et de l'agence de lobbying et de marketing Entropy Conseil.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pascal</t>
+          <t>Gérard_Pascal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Chercheur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pascal est ingénieur biochimiste de formation[4].
-Directeur de recherches, il travaille à la direction scientifique pour la Nutrition Humaine et la Sécurité des Aliments. Il a été président du Centre national d'études et de recommandations sur la nutrition et l'alimentation (CNERNA), qui a soutenu la création de l'Afssa. C'est à ce titre qu'il était auditionné par une commission parlementaire de 1997-98 sur les OGM[5].
-À ce titre, il est intervenu plusieurs fois au cours des dernières années dans des débats liés à la sécurité alimentaire, notamment quant à la controverse sur les OGM (récemment en critiquant l'étude de 2012 de Gilles-Éric Séralini[2],[6]) [7], mais aussi sur d'autres sujets, comme l'agriculture biologique[8], l'aspartame[9], la vache folle, etc. 
-En 1998, il présidait ainsi le comité scientifique de l'Union européenne qui avait donné un avis favorable, en janvier 1998, à une levée partielle de l'embargo sur la viande bovine britannique[10]. Sa fonction à ce comité venait de son expérience en matière de sécurité alimentaire ; lui-même soulignait qu'il n'était pas un « spécialiste de l'ESB »[10] (ses premiers travaux de chercheur concernaient les additifs alimentaires[4]). Un nouveau rapport de l'Afssa courant 1998 lui fit annoncer qu'il n'excluait pas le rétablissement d'un embargo[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pascal est ingénieur biochimiste de formation.
+Directeur de recherches, il travaille à la direction scientifique pour la Nutrition Humaine et la Sécurité des Aliments. Il a été président du Centre national d'études et de recommandations sur la nutrition et l'alimentation (CNERNA), qui a soutenu la création de l'Afssa. C'est à ce titre qu'il était auditionné par une commission parlementaire de 1997-98 sur les OGM.
+À ce titre, il est intervenu plusieurs fois au cours des dernières années dans des débats liés à la sécurité alimentaire, notamment quant à la controverse sur les OGM (récemment en critiquant l'étude de 2012 de Gilles-Éric Séralini,) , mais aussi sur d'autres sujets, comme l'agriculture biologique, l'aspartame, la vache folle, etc. 
+En 1998, il présidait ainsi le comité scientifique de l'Union européenne qui avait donné un avis favorable, en janvier 1998, à une levée partielle de l'embargo sur la viande bovine britannique. Sa fonction à ce comité venait de son expérience en matière de sécurité alimentaire ; lui-même soulignait qu'il n'était pas un « spécialiste de l'ESB » (ses premiers travaux de chercheur concernaient les additifs alimentaires). Un nouveau rapport de l'Afssa courant 1998 lui fit annoncer qu'il n'excluait pas le rétablissement d'un embargo.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pascal</t>
+          <t>Gérard_Pascal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Fonctions institutionnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il a exercé de nombreuses fonctions institutionnelles[11] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il a exercé de nombreuses fonctions institutionnelles :
 - Au niveau national :
 Conseil supérieur d'hygiène publique de France : membre consultant, puis membre de 1978 à 2000
 Président du groupe de travail "Additifs alimentaires" et expert toxicologue du groupe "Matériaux au contact" de 1983 à 1988,
@@ -560,7 +576,7 @@
 Commission de technologie alimentaire : membre de droit depuis sa création en juillet 1989 jusqu'en 2000
 Commission interministérielle et Interprofessionnelle de l'Alimentation Animale : membre de droit depuis 1993 jusqu'en 2000
 Président du Conseil Scientifique de l'Agence française de sécurité sanitaire des aliments (AFSSA) de 1999 à 2002. Membre du conseil d’administration de 2002 à 2005.
-- Au niveau international[12] :
+- Au niveau international :
 Comité Scientifique de l'Alimentation Humaine de la CEE : membre de 1986 à 1997. Président de septembre 1992 à septembre 1997.
 Multi-Disciplinary Scientific Committee of the E.U. (centré essentiellement sur le problème de l'ESB) de juillet 1996 à octobre 1997.
 Comité scientifique Directeur de l’Union européenne : membre depuis juillet 1997 et président de novembre 1997 à avril 2003.
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pascal</t>
+          <t>Gérard_Pascal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,11 +613,13 @@
           <t>Associations et lobbying</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre ses activités scientifiques, Gérard Pascal est membre d'un certain nombre d'associations, dont l'Association française pour l'information scientifique (AFIS).
-Lauréat de l'Institut Français pour la Nutrition (IFN)[11], il est également administrateur de ce dernier[13]. C'est à ce titre qu'il est intervenu, par exemple, en 2007, pour accuser une « émission de Canal+ » de n'avoir pas respecté les « règles du débat scientifique » au sujet d'une controverse sur le maïs OGM MON 810[13]. L'IFN se présente comme « une association loi 1901 à but non lucratif dont l’objectif est de favoriser les échanges entre les milieux scientifiques et les professionnels de la chaîne agroalimentaire à l’occasion des questions intéressant la Nutrition et l’Alimentation[13]. » À ce titre, elle compte parmi ses membres de nombreux groupes agro-industriels, dont l'Association nationale des industries agroalimentaires (ANIA), Coca-Cola, Danone, Kellogs, Nestlé, Unilever, etc[14]. 
-Gérard Pascal est également membre du conseil scientifique d'Entropy Conseil, une entreprise qui déclare faire du « lobbying » et du « marketing », aux côtés de Jeanne Brugère-Picoux, du nutritionniste Serge Hercberg ou du sociologue Claude Fischler[15]. Interrogé par Le Point, il précisait en 2001 n'être pas payé par cette firme mais collaborer à titre gracieux[15].
+Lauréat de l'Institut Français pour la Nutrition (IFN), il est également administrateur de ce dernier. C'est à ce titre qu'il est intervenu, par exemple, en 2007, pour accuser une « émission de Canal+ » de n'avoir pas respecté les « règles du débat scientifique » au sujet d'une controverse sur le maïs OGM MON 810. L'IFN se présente comme « une association loi 1901 à but non lucratif dont l’objectif est de favoriser les échanges entre les milieux scientifiques et les professionnels de la chaîne agroalimentaire à l’occasion des questions intéressant la Nutrition et l’Alimentation. » À ce titre, elle compte parmi ses membres de nombreux groupes agro-industriels, dont l'Association nationale des industries agroalimentaires (ANIA), Coca-Cola, Danone, Kellogs, Nestlé, Unilever, etc. 
+Gérard Pascal est également membre du conseil scientifique d'Entropy Conseil, une entreprise qui déclare faire du « lobbying » et du « marketing », aux côtés de Jeanne Brugère-Picoux, du nutritionniste Serge Hercberg ou du sociologue Claude Fischler. Interrogé par Le Point, il précisait en 2001 n'être pas payé par cette firme mais collaborer à titre gracieux.
 </t>
         </is>
       </c>
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pascal</t>
+          <t>Gérard_Pascal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre autres, il est Chevalier de l'Ordre national du mérite (2000),  membre de l'Académie d'agriculture (1996) et de l'Académie des technologies depuis 2002.
 </t>
